--- a/public/excel/ventas-propias.xlsx
+++ b/public/excel/ventas-propias.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
   <si>
     <t>Número</t>
   </si>
@@ -25,7 +25,28 @@
     <t>Precio total</t>
   </si>
   <si>
+    <t>Habilitada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
     <t>EQUINOCCIO TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>MORENO LUCAS OMAR</t>
+  </si>
+  <si>
+    <t>CONSUMIDOR FINAL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FET YAMIL DAHER</t>
   </si>
 </sst>
 </file>
@@ -407,16 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,23 +452,415 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44878.083493391205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44878.08278621528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44878.080400879626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44878.07969197917</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44878.05529379629</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44878.042339039355</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44878.041381030096</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44878.040089780094</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44878.03886519676</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>3000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44877.95189814815</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44877.8860007176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44876.858772314816</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>7000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44870.70393458333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>3000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44870.70329771991</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44868.889203530096</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44868.88840033565</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>3000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44868.770341111114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>3000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44863.7738141088</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44863.72010481481</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>4000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>44846.40408211805</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>10600</v>
+      <c r="B21" s="2">
+        <v>44863.719702222224</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/public/excel/ventas-propias.xlsx
+++ b/public/excel/ventas-propias.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
   <si>
     <t>Número</t>
   </si>
   <si>
-    <t>Fecha</t>
+    <t>Fecha de venta</t>
+  </si>
+  <si>
+    <t>Fecha de carga</t>
   </si>
   <si>
     <t>Cliente</t>
@@ -31,22 +34,28 @@
     <t>Cancelada</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>EQUINOCCIO TECHNOLOGY</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>MORENO LUCAS OMAR</t>
   </si>
   <si>
+    <t>FET YAMIL DAHER</t>
+  </si>
+  <si>
     <t>CONSUMIDOR FINAL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>FET YAMIL DAHER</t>
   </si>
 </sst>
 </file>
@@ -428,18 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,409 +467,863 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44883.87124988426</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44881.710115243055</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44881.710115243055</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44881.02674775463</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44881.02674775463</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44880.98226483796</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44880.98226483796</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44880.980976631945</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44880.980976631945</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44880.98051392361</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44880.98051392361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44878.880814895834</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44878.880814895834</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44878.879972442126</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44878.879972442126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44878.87827810185</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44878.87827810185</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>4000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44878.87762215278</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44878.87762215278</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44878.870269328705</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44878.870269328705</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44878.86949803241</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44878.86949803241</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44878.86833540509</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44878.86833540509</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>4000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44878.8627315162</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44878.8627315162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>3000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44878.85981594908</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44878.85981594908</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44878.78613245371</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44878.78613245371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>6000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44878.78551616898</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44878.78551616898</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>6000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B19" s="2">
         <v>44878.083493391205</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C19" s="2">
+        <v>44878.083493391205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>3000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44878.08278621528</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44878.08278621528</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>3000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44878.080400879626</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44878.080400879626</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44878.07969197917</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44878.07969197917</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>3000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44878.05529379629</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44878.05529379629</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>3000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44878.042339039355</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44878.042339039355</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>3000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44878.041381030096</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44878.041381030096</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>3000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44878.040089780094</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44878.040089780094</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>3000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44878.03886519676</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44878.03886519676</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>3000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44877.95189814815</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44877.95189814815</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>3000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44877.8860007176</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44877.8860007176</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>6000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44876.858772314816</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44876.858772314816</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>7000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44870.70393458333</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44870.70393458333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44870.70329771991</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44870.70329771991</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>3000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44878.08278621528</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44878.080400879626</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>3000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44878.07969197917</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>3000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44878.05529379629</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>3000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44878.042339039355</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>3000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44878.041381030096</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>3000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B33" s="2">
+        <v>44868.889203530096</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44868.889203530096</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <v>44878.040089780094</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>3000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E33">
+        <v>5000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44868.88840033565</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44868.88840033565</v>
+      </c>
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>44878.03886519676</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>3000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44877.95189814815</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>3000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44877.8860007176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>6000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44876.858772314816</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>7000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44870.70393458333</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>3000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44870.70329771991</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>3000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44868.889203530096</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
+      <c r="E34">
+        <v>3000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44868.770341111114</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44868.770341111114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44863.7738141088</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44863.7738141088</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
         <v>5000</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44868.88840033565</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>3000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44868.770341111114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>3000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44863.7738141088</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>5000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B37" s="2">
         <v>44863.72010481481</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+      <c r="C37" s="2">
+        <v>44863.72010481481</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
         <v>4000</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>1</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B38" s="2">
         <v>44863.719702222224</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>3000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
+      <c r="C38" s="2">
+        <v>44863.719702222224</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>3000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/public/excel/ventas-propias.xlsx
+++ b/public/excel/ventas-propias.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="12">
   <si>
     <t>Número</t>
   </si>
@@ -34,28 +34,19 @@
     <t>Cancelada</t>
   </si>
   <si>
-    <t>2</t>
+    <t>EQUINOCCIO TECHNOLOGY</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>3</t>
+    <t>ROMER MARCELO</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>EQUINOCCIO TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>MORENO LUCAS OMAR</t>
-  </si>
-  <si>
-    <t>FET YAMIL DAHER</t>
-  </si>
-  <si>
-    <t>CONSUMIDOR FINAL</t>
+    <t>PROBANDO CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -437,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
@@ -473,13 +464,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>44873</v>
+        <v>45070</v>
       </c>
       <c r="C2" s="2">
-        <v>44883.87124988426</v>
+        <v>45070.73974576389</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -496,19 +487,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>44881.710115243055</v>
+        <v>44887</v>
       </c>
       <c r="C3" s="2">
-        <v>44881.710115243055</v>
+        <v>44887.85589114584</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -519,42 +510,42 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>44881.02674775463</v>
+        <v>44887</v>
       </c>
       <c r="C4" s="2">
-        <v>44881.02674775463</v>
+        <v>44887.85198840278</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>44880.98226483796</v>
+        <v>44887</v>
       </c>
       <c r="C5" s="2">
-        <v>44880.98226483796</v>
+        <v>44887.85151574074</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -565,19 +556,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>44880.980976631945</v>
+        <v>44887</v>
       </c>
       <c r="C6" s="2">
-        <v>44880.980976631945</v>
+        <v>44887.84689380787</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -588,19 +579,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>44880.98051392361</v>
+        <v>44887</v>
       </c>
       <c r="C7" s="2">
-        <v>44880.98051392361</v>
+        <v>44887.84431951389</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -611,19 +602,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>44878.880814895834</v>
+        <v>44887</v>
       </c>
       <c r="C8" s="2">
-        <v>44878.880814895834</v>
+        <v>44887.84231931713</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -634,19 +625,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>44878.879972442126</v>
+        <v>44887</v>
       </c>
       <c r="C9" s="2">
-        <v>44878.879972442126</v>
+        <v>44887.837173912034</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -657,19 +648,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>44878.87827810185</v>
+        <v>44887</v>
       </c>
       <c r="C10" s="2">
-        <v>44878.87827810185</v>
+        <v>44887.75998304399</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>4000</v>
+        <v>8600</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -680,19 +671,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>44878.87762215278</v>
+        <v>44882</v>
       </c>
       <c r="C11" s="2">
-        <v>44878.87762215278</v>
+        <v>44882.71894121528</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -703,22 +694,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>44878.870269328705</v>
+        <v>44870</v>
       </c>
       <c r="C12" s="2">
-        <v>44878.870269328705</v>
+        <v>44882.718223240736</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -726,22 +717,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>44878.86949803241</v>
+        <v>44867</v>
       </c>
       <c r="C13" s="2">
-        <v>44878.86949803241</v>
+        <v>44882.71364314815</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>2000</v>
+        <v>24600</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -749,22 +740,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>44878.86833540509</v>
+        <v>44873</v>
       </c>
       <c r="C14" s="2">
-        <v>44878.86833540509</v>
+        <v>44882.688590000005</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -772,19 +763,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>44878.8627315162</v>
+        <v>44882</v>
       </c>
       <c r="C15" s="2">
-        <v>44878.8627315162</v>
+        <v>44882.68649253472</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -795,19 +786,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
-        <v>44878.85981594908</v>
+        <v>44877</v>
       </c>
       <c r="C16" s="2">
-        <v>44878.85981594908</v>
+        <v>44882.673479212965</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -818,19 +809,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>44878.78613245371</v>
+        <v>44882</v>
       </c>
       <c r="C17" s="2">
-        <v>44878.78613245371</v>
+        <v>44882.67149799768</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -841,19 +832,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>44878.78551616898</v>
+        <v>44867</v>
       </c>
       <c r="C18" s="2">
-        <v>44878.78551616898</v>
+        <v>44882.65565501158</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -864,19 +855,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>44878.083493391205</v>
+        <v>44875</v>
       </c>
       <c r="C19" s="2">
-        <v>44878.083493391205</v>
+        <v>44882.653491006946</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -887,19 +878,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>44878.08278621528</v>
+        <v>44877</v>
       </c>
       <c r="C20" s="2">
-        <v>44878.08278621528</v>
+        <v>44882.6505178125</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>3000</v>
+        <v>12800</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -910,19 +901,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>44878.080400879626</v>
+        <v>44880</v>
       </c>
       <c r="C21" s="2">
-        <v>44878.080400879626</v>
+        <v>44882.64922197917</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -933,19 +924,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>44878.07969197917</v>
+        <v>44882</v>
       </c>
       <c r="C22" s="2">
-        <v>44878.07969197917</v>
+        <v>44882.64863408565</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -956,19 +947,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>44878.05529379629</v>
+        <v>44874.875</v>
       </c>
       <c r="C23" s="2">
-        <v>44878.05529379629</v>
+        <v>44882.63386454861</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -979,346 +970,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>44878.042339039355</v>
+        <v>44882.551763344905</v>
       </c>
       <c r="C24" s="2">
-        <v>44878.042339039355</v>
+        <v>44882.551763344905</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>3000</v>
+        <v>12600</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44878.041381030096</v>
-      </c>
-      <c r="C25" s="2">
-        <v>44878.041381030096</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>3000</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44878.040089780094</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44878.040089780094</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>3000</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44878.03886519676</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44878.03886519676</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>3000</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44877.95189814815</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44877.95189814815</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>3000</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44877.8860007176</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44877.8860007176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>6000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2">
-        <v>44876.858772314816</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44876.858772314816</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>7000</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2">
-        <v>44870.70393458333</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44870.70393458333</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>3000</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44870.70329771991</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44870.70329771991</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>3000</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
-        <v>44868.889203530096</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44868.889203530096</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <v>5000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2">
-        <v>44868.88840033565</v>
-      </c>
-      <c r="C34" s="2">
-        <v>44868.88840033565</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>3000</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44868.770341111114</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44868.770341111114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>3000</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44863.7738141088</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44863.7738141088</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <v>5000</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44863.72010481481</v>
-      </c>
-      <c r="C37" s="2">
-        <v>44863.72010481481</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>4000</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44863.719702222224</v>
-      </c>
-      <c r="C38" s="2">
-        <v>44863.719702222224</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>3000</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
         <v>8</v>
       </c>
     </row>
